--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06389896953004803</v>
+        <v>0.06603978468115329</v>
       </c>
       <c r="H2" t="n">
-        <v>91.91774471140954</v>
+        <v>98.34758886485763</v>
       </c>
       <c r="I2" t="n">
-        <v>-38.65251878325266</v>
+        <v>25.81699312732994</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05182321847001122</v>
+        <v>0.05325878423939615</v>
       </c>
       <c r="H3" t="n">
-        <v>2.692021616675258</v>
+        <v>5.536714697772589</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000695667827826756</v>
+        <v>0.05107971399761535</v>
       </c>
       <c r="H4" t="n">
-        <v>-98.57081442181222</v>
+        <v>4.938575083177073</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02694063315651308</v>
+        <v>0.05787459370931597</v>
       </c>
       <c r="H5" t="n">
-        <v>-61.86992209819086</v>
+        <v>-18.08793973580863</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07721925625060999</v>
+        <v>-0.1193263051722239</v>
       </c>
       <c r="H6" t="n">
-        <v>-34.35170198340231</v>
+        <v>-1.445795045504012</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1202338092580234</v>
+        <v>-0.1102156219180547</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.838700992725049</v>
+        <v>11.85110544247711</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.230623034767085</v>
+        <v>-0.1813451552608865</v>
       </c>
       <c r="H8" t="n">
-        <v>15.78698298879992</v>
+        <v>8.953550851936246</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2858287681842829</v>
+        <v>-0.2806981108175262</v>
       </c>
       <c r="H9" t="n">
-        <v>-5.378802447818055</v>
+        <v>7.0772631988347</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01651450427988948</v>
+        <v>-0.002691935776942437</v>
       </c>
       <c r="H10" t="n">
-        <v>-1397.580668556262</v>
+        <v>-311.5112731182062</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05055146160309471</v>
+        <v>0.04219137017150613</v>
       </c>
       <c r="H11" t="n">
-        <v>-345.8323997834372</v>
+        <v>305.177168977795</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1992588334997911</v>
+        <v>0.2018591090105028</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.970632763801595</v>
+        <v>-4.743574185682092</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.231090650940789</v>
+        <v>0.2348148175427455</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.662125591966409</v>
+        <v>-0.07735084626877313</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06013681350050763</v>
+        <v>-0.06270748657100526</v>
       </c>
       <c r="H14" t="n">
-        <v>-33.95207511034772</v>
+        <v>31.12871929894201</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06064117605084385</v>
+        <v>-0.06390788596983148</v>
       </c>
       <c r="H15" t="n">
-        <v>-14.5522623572666</v>
+        <v>9.94923533354044</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1899450438905299</v>
+        <v>0.1668427290064805</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.7877822877322065</v>
+        <v>-12.85459828349269</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1737248394911396</v>
+        <v>0.2102598800818728</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.08327147915053155</v>
+        <v>20.92962306658706</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06640947964683463</v>
+        <v>0.05849667852494526</v>
       </c>
       <c r="H18" t="n">
-        <v>22.45925811295974</v>
+        <v>7.868031677591109</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05940558017555194</v>
+        <v>0.06762543899312602</v>
       </c>
       <c r="H19" t="n">
-        <v>-30.95553758767486</v>
+        <v>-21.40196145076206</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003951401836127098</v>
+        <v>-0.01670981480805889</v>
       </c>
       <c r="H20" t="n">
-        <v>-68.95725911576758</v>
+        <v>-231.2745382075581</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02726236371272666</v>
+        <v>-0.04511704937241399</v>
       </c>
       <c r="H21" t="n">
-        <v>-49.39586756966432</v>
+        <v>16.25417497302972</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06706731555670585</v>
+        <v>0.05601503543311501</v>
       </c>
       <c r="H22" t="n">
-        <v>2.74934911251562</v>
+        <v>-14.1831101559336</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09201002449543255</v>
+        <v>0.08217775753201385</v>
       </c>
       <c r="H23" t="n">
-        <v>59.53635820740251</v>
+        <v>42.4881716335076</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03858383553017409</v>
+        <v>0.04890865883062724</v>
       </c>
       <c r="H24" t="n">
-        <v>19.10756369010457</v>
+        <v>50.98009611073638</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05100610105711513</v>
+        <v>0.02667230920103616</v>
       </c>
       <c r="H25" t="n">
-        <v>73.30074438585359</v>
+        <v>-9.376899170292031</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07489937292742675</v>
+        <v>0.1083645803741487</v>
       </c>
       <c r="H26" t="n">
-        <v>-33.88786486278323</v>
+        <v>-4.348814926324891</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1412070172532068</v>
+        <v>0.09495499329867346</v>
       </c>
       <c r="H27" t="n">
-        <v>56.57022393286949</v>
+        <v>5.286018028822811</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1125970983388235</v>
+        <v>0.1347432607022712</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.145856855578113</v>
+        <v>14.70721705666124</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.141425883468851</v>
+        <v>0.1426034792118002</v>
       </c>
       <c r="H29" t="n">
-        <v>18.22172074389739</v>
+        <v>19.20610487258346</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.092822980501248</v>
+        <v>0.06642409821940501</v>
       </c>
       <c r="H30" t="n">
-        <v>38.07122023781914</v>
+        <v>-1.19627440505757</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05348044769325204</v>
+        <v>0.04836861107598718</v>
       </c>
       <c r="H31" t="n">
-        <v>-22.06023043706893</v>
+        <v>-29.50996927018731</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07241979372439253</v>
+        <v>0.06329986925804701</v>
       </c>
       <c r="H32" t="n">
-        <v>65.84727632565478</v>
+        <v>44.96190017013478</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08068059919073334</v>
+        <v>0.07036845858977764</v>
       </c>
       <c r="H33" t="n">
-        <v>48.4780267104555</v>
+        <v>29.50040008213798</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003795736223393952</v>
+        <v>-0.00144061226947688</v>
       </c>
       <c r="H34" t="n">
-        <v>-119.8744021318545</v>
+        <v>92.45698176200813</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03593082876285637</v>
+        <v>0.05045094592216719</v>
       </c>
       <c r="H35" t="n">
-        <v>157.5194028006126</v>
+        <v>261.5863566729951</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007953164987820029</v>
+        <v>-0.008634980055699945</v>
       </c>
       <c r="H36" t="n">
-        <v>-48.552898254213</v>
+        <v>-155.8575986011582</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.004213032347200022</v>
+        <v>0.02103459616907108</v>
       </c>
       <c r="H37" t="n">
-        <v>-133.6405530787372</v>
+        <v>67.95870304335951</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05653603318562941</v>
+        <v>0.05108023211144321</v>
       </c>
       <c r="H38" t="n">
-        <v>-21.19622677388841</v>
+        <v>-28.80089385771608</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04102021380995867</v>
+        <v>0.06537890562396609</v>
       </c>
       <c r="H39" t="n">
-        <v>-4.742622594932058</v>
+        <v>51.82327220928573</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03815572633543612</v>
+        <v>0.03990923495873493</v>
       </c>
       <c r="H40" t="n">
-        <v>-14.69723784137722</v>
+        <v>-10.77701030537473</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06896621172762077</v>
+        <v>0.05770758606525871</v>
       </c>
       <c r="H41" t="n">
-        <v>458.0096577193989</v>
+        <v>366.915458185029</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09125619194700892</v>
+        <v>0.07137511914022257</v>
       </c>
       <c r="H42" t="n">
-        <v>74.55618839335169</v>
+        <v>36.52737942947857</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06048823161875575</v>
+        <v>0.06945951351875042</v>
       </c>
       <c r="H43" t="n">
-        <v>21.21917970202506</v>
+        <v>39.19774187337769</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1059207943399358</v>
+        <v>0.08254840554808492</v>
       </c>
       <c r="H44" t="n">
-        <v>-19.60523861579597</v>
+        <v>-37.34507555347311</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1549233433098273</v>
+        <v>0.125015564099229</v>
       </c>
       <c r="H45" t="n">
-        <v>-13.65646519066314</v>
+        <v>-30.32498860469694</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>0.009063662229627222</v>
+        <v>-0.0185847096237442</v>
       </c>
       <c r="H46" t="n">
-        <v>-120.6321302590353</v>
+        <v>57.69456759652364</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.009540666658945717</v>
+        <v>0.01469345588740302</v>
       </c>
       <c r="H47" t="n">
-        <v>-464.2078031495421</v>
+        <v>660.911672184669</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01332839364001415</v>
+        <v>0.009517001786506489</v>
       </c>
       <c r="H48" t="n">
-        <v>-8.028163844784835</v>
+        <v>-34.32846053033172</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>0.008624152767460154</v>
+        <v>-0.008092832778719163</v>
       </c>
       <c r="H49" t="n">
-        <v>-255.1436310516032</v>
+        <v>-45.58548493264819</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1139670845158908</v>
+        <v>0.1211209840834479</v>
       </c>
       <c r="H50" t="n">
-        <v>-20.26452675896034</v>
+        <v>-15.25940120046192</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1469925633573366</v>
+        <v>0.1583066076119766</v>
       </c>
       <c r="H51" t="n">
-        <v>12.2378669913911</v>
+        <v>20.87683596494371</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06133345414522084</v>
+        <v>0.08814188728498154</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.9995530885760646</v>
+        <v>42.27286485722038</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07191540232713116</v>
+        <v>0.05663937652428736</v>
       </c>
       <c r="H53" t="n">
-        <v>17.54411284675559</v>
+        <v>-7.424208857842618</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1460671901562591</v>
+        <v>-0.1048322649155554</v>
       </c>
       <c r="H54" t="n">
-        <v>63.55637131906467</v>
+        <v>-17.38423138286415</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.06393294425322682</v>
+        <v>-0.06706356776482356</v>
       </c>
       <c r="H55" t="n">
-        <v>-38.39962207995608</v>
+        <v>35.38321803831052</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1477363827382275</v>
+        <v>0.1472916104119313</v>
       </c>
       <c r="H56" t="n">
-        <v>-4.762164352066668</v>
+        <v>-5.048885557279886</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1650325479764068</v>
+        <v>0.1745713732693138</v>
       </c>
       <c r="H57" t="n">
-        <v>18.31469295727086</v>
+        <v>25.15324207707652</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 250/DJI_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06603978468115329</v>
+        <v>0.06374189416929597</v>
       </c>
       <c r="H2" t="n">
-        <v>98.34758886485763</v>
+        <v>91.44597577355383</v>
       </c>
       <c r="I2" t="n">
-        <v>25.81699312732994</v>
+        <v>27.79781136887867</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05325878423939615</v>
+        <v>0.07280974543165851</v>
       </c>
       <c r="H3" t="n">
-        <v>5.536714697772589</v>
+        <v>44.27857189339247</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05107971399761535</v>
+        <v>0.03001691309245777</v>
       </c>
       <c r="H4" t="n">
-        <v>4.938575083177073</v>
+        <v>-38.33301242710296</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05787459370931597</v>
+        <v>0.06997522669065702</v>
       </c>
       <c r="H5" t="n">
-        <v>-18.08793973580863</v>
+        <v>-0.9614648100257756</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1193263051722239</v>
+        <v>-0.1265854152322287</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.445795045504012</v>
+        <v>-7.617160112889162</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1102156219180547</v>
+        <v>-0.137181892050301</v>
       </c>
       <c r="H7" t="n">
-        <v>11.85110544247711</v>
+        <v>-9.716135762806777</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1813451552608865</v>
+        <v>-0.2037904830513343</v>
       </c>
       <c r="H8" t="n">
-        <v>8.953550851936246</v>
+        <v>-2.315387611540844</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2806981108175262</v>
+        <v>-0.2911769043957947</v>
       </c>
       <c r="H9" t="n">
-        <v>7.0772631988347</v>
+        <v>3.608347163627863</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.002691935776942437</v>
+        <v>-0.006626872574338505</v>
       </c>
       <c r="H10" t="n">
-        <v>-311.5112731182062</v>
+        <v>-620.6878510981782</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04219137017150613</v>
+        <v>0.02257092478619185</v>
       </c>
       <c r="H11" t="n">
-        <v>305.177168977795</v>
+        <v>209.762693887793</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2018591090105028</v>
+        <v>0.19910325564752</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.743574185682092</v>
+        <v>-6.044049268094411</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2348148175427455</v>
+        <v>0.2531862596566299</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.07735084626877313</v>
+        <v>7.740397556510701</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06270748657100526</v>
+        <v>-0.06462633911388026</v>
       </c>
       <c r="H14" t="n">
-        <v>31.12871929894201</v>
+        <v>29.02125431619802</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06390788596983148</v>
+        <v>-0.06081691571111515</v>
       </c>
       <c r="H15" t="n">
-        <v>9.94923533354044</v>
+        <v>14.30463265477377</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1668427290064805</v>
+        <v>0.1948543360970333</v>
       </c>
       <c r="H16" t="n">
-        <v>-12.85459828349269</v>
+        <v>1.776442380774853</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2102598800818728</v>
+        <v>0.2139304205239499</v>
       </c>
       <c r="H17" t="n">
-        <v>20.92962306658706</v>
+        <v>23.04071088770731</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05849667852494526</v>
+        <v>0.05353976287189038</v>
       </c>
       <c r="H18" t="n">
-        <v>7.868031677591109</v>
+        <v>-1.272534046304775</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06762543899312602</v>
+        <v>0.05366568516383025</v>
       </c>
       <c r="H19" t="n">
-        <v>-21.40196145076206</v>
+        <v>-37.62676214631674</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01670981480805889</v>
+        <v>0.01034344447897358</v>
       </c>
       <c r="H20" t="n">
-        <v>-231.2745382075581</v>
+        <v>-18.74051789024545</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.04511704937241399</v>
+        <v>-0.01760843828850251</v>
       </c>
       <c r="H21" t="n">
-        <v>16.25417497302972</v>
+        <v>67.31538936123839</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05601503543311501</v>
+        <v>0.06802829854133297</v>
       </c>
       <c r="H22" t="n">
-        <v>-14.1831101559336</v>
+        <v>4.221606878597715</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08217775753201385</v>
+        <v>0.1186771471676996</v>
       </c>
       <c r="H23" t="n">
-        <v>42.4881716335076</v>
+        <v>105.7745334316112</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04890865883062724</v>
+        <v>0.03533730214771737</v>
       </c>
       <c r="H24" t="n">
-        <v>50.98009611073638</v>
+        <v>9.085577116980954</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02667230920103616</v>
+        <v>0.01590113315853392</v>
       </c>
       <c r="H25" t="n">
-        <v>-9.376899170292031</v>
+        <v>-45.97355696984602</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1083645803741487</v>
+        <v>0.09499952633269493</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.348814926324891</v>
+        <v>-16.14587309076303</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09495499329867346</v>
+        <v>0.1070567709475595</v>
       </c>
       <c r="H27" t="n">
-        <v>5.286018028822811</v>
+        <v>18.70445907608494</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1347432607022712</v>
+        <v>0.1223076431759911</v>
       </c>
       <c r="H28" t="n">
-        <v>14.70721705666124</v>
+        <v>4.120750086914041</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1426034792118002</v>
+        <v>0.1454121878080378</v>
       </c>
       <c r="H29" t="n">
-        <v>19.20610487258346</v>
+        <v>21.55398034750331</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06642409821940501</v>
+        <v>0.04969523207167355</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.19627440505757</v>
+        <v>-26.07992875163797</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04836861107598718</v>
+        <v>0.06038010479839933</v>
       </c>
       <c r="H31" t="n">
-        <v>-29.50996927018731</v>
+        <v>-12.00501010827067</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06329986925804701</v>
+        <v>0.05240961544770578</v>
       </c>
       <c r="H32" t="n">
-        <v>44.96190017013478</v>
+        <v>20.02232439871364</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07036845858977764</v>
+        <v>0.08700169883816945</v>
       </c>
       <c r="H33" t="n">
-        <v>29.50040008213798</v>
+        <v>60.11086548093487</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.00144061226947688</v>
+        <v>0.007607627652831255</v>
       </c>
       <c r="H34" t="n">
-        <v>92.45698176200813</v>
+        <v>139.8333926129861</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05045094592216719</v>
+        <v>0.02443481770390726</v>
       </c>
       <c r="H35" t="n">
-        <v>261.5863566729951</v>
+        <v>75.12648272552137</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.008634980055699945</v>
+        <v>0.004507954462800914</v>
       </c>
       <c r="H36" t="n">
-        <v>-155.8575986011582</v>
+        <v>-70.83913231169331</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02103459616907108</v>
+        <v>0.02173823189845242</v>
       </c>
       <c r="H37" t="n">
-        <v>67.95870304335951</v>
+        <v>73.57714912960435</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05108023211144321</v>
+        <v>0.06524856201101945</v>
       </c>
       <c r="H38" t="n">
-        <v>-28.80089385771608</v>
+        <v>-9.052110763348866</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06537890562396609</v>
+        <v>0.02966857644405549</v>
       </c>
       <c r="H39" t="n">
-        <v>51.82327220928573</v>
+        <v>-31.10346044280285</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03990923495873493</v>
+        <v>0.06620111204117042</v>
       </c>
       <c r="H40" t="n">
-        <v>-10.77701030537473</v>
+        <v>48.00236445347575</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05770758606525871</v>
+        <v>0.03943011885955505</v>
       </c>
       <c r="H41" t="n">
-        <v>366.915458185029</v>
+        <v>219.0314007031886</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07137511914022257</v>
+        <v>0.07512414691143346</v>
       </c>
       <c r="H42" t="n">
-        <v>36.52737942947857</v>
+        <v>43.69857498301871</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06945951351875042</v>
+        <v>0.060577889450595</v>
       </c>
       <c r="H43" t="n">
-        <v>39.19774187337769</v>
+        <v>21.39885512877445</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08254840554808492</v>
+        <v>0.09472364758580461</v>
       </c>
       <c r="H44" t="n">
-        <v>-37.34507555347311</v>
+        <v>-28.10396586847564</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.125015564099229</v>
+        <v>0.1308004021031449</v>
       </c>
       <c r="H45" t="n">
-        <v>-30.32498860469694</v>
+        <v>-27.10092081164279</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0185847096237442</v>
+        <v>-0.02508464513799502</v>
       </c>
       <c r="H46" t="n">
-        <v>57.69456759652364</v>
+        <v>42.89839439327003</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01469345588740302</v>
+        <v>0.02691992482108009</v>
       </c>
       <c r="H47" t="n">
-        <v>660.911672184669</v>
+        <v>1127.647965338288</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>0.009517001786506489</v>
+        <v>-0.0001689302114396751</v>
       </c>
       <c r="H48" t="n">
-        <v>-34.32846053033172</v>
+        <v>-101.1656934922414</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.008092832778719163</v>
+        <v>7.893714018425944e-05</v>
       </c>
       <c r="H49" t="n">
-        <v>-45.58548493264819</v>
+        <v>101.4200345104302</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1211209840834479</v>
+        <v>0.1430713303841797</v>
       </c>
       <c r="H50" t="n">
-        <v>-15.25940120046192</v>
+        <v>0.09785091779785221</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1583066076119766</v>
+        <v>0.1361590792330044</v>
       </c>
       <c r="H51" t="n">
-        <v>20.87683596494371</v>
+        <v>3.965835247552169</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08814188728498154</v>
+        <v>0.06746770057011559</v>
       </c>
       <c r="H52" t="n">
-        <v>42.27286485722038</v>
+        <v>8.901945954531479</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05663937652428736</v>
+        <v>0.06563826013877397</v>
       </c>
       <c r="H53" t="n">
-        <v>-7.424208857842618</v>
+        <v>7.28426466587395</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1048322649155554</v>
+        <v>-0.1312649730868879</v>
       </c>
       <c r="H54" t="n">
-        <v>-17.38423138286415</v>
+        <v>-46.98182840663135</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.06706356776482356</v>
+        <v>-0.04908029145359365</v>
       </c>
       <c r="H55" t="n">
-        <v>35.38321803831052</v>
+        <v>52.71038214676504</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1472916104119313</v>
+        <v>0.1345192637838271</v>
       </c>
       <c r="H56" t="n">
-        <v>-5.048885557279886</v>
+        <v>-13.28254219933515</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1745713732693138</v>
+        <v>0.1762308217490755</v>
       </c>
       <c r="H57" t="n">
-        <v>25.15324207707652</v>
+        <v>26.34292944341037</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>